--- a/src/main/webapp/uploadFiles/file/Valueation_Index.xlsx
+++ b/src/main/webapp/uploadFiles/file/Valueation_Index.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liuzengzhen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SZ544NV\Documents\My Work\2021HIVE问题检查\ras\ras\src\main\webapp\uploadFiles\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AC2B37-F51C-4F9A-85B6-81FCE62E0F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9765"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAIL" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DETAIL!$A$2:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DETAIL!$B$2:$O$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>期末交易状态</t>
   </si>
@@ -115,12 +116,19 @@
   <si>
     <t>仅债券、资产支持证券适用</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：如果通用，则为空</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +175,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,113 +452,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N3"/>
+  <autoFilter ref="B2:O3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
